--- a/spreadsheets/Vel'Koz_Support.xlsx
+++ b/spreadsheets/Vel'Koz_Support.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEF4CC5-FA56-4515-BEFF-24164C75F64D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5037B543-89AC-4EE1-9988-837705C8AA20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1320" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -273,9 +273,6 @@
     <t>Zyra</t>
   </si>
   <si>
-    <t>Very easily killed but trades effectively if your ADC doesn't auto plants. Her objectve control mid/late game with Liandry's can be very troublesome so you need to make a lead early.</t>
-  </si>
-  <si>
     <t>If you don't have a social, feel free to omit it.</t>
   </si>
   <si>
@@ -297,18 +294,12 @@
     <t>discord</t>
   </si>
   <si>
-    <t>https://t.co/utMQRQgd5g?amp=1</t>
-  </si>
-  <si>
     <t>If you aren't sure for portrait, just send me the picture you want on discord (usephysics#0001)</t>
   </si>
   <si>
     <t>portrait</t>
   </si>
   <si>
-    <t>https://i.imgur.com/I26PSp9.png</t>
-  </si>
-  <si>
     <t>Portrait can be anything you want, it doesn't have to be an irl picture.</t>
   </si>
   <si>
@@ -334,13 +325,22 @@
   </si>
   <si>
     <t>Metadata guide</t>
+  </si>
+  <si>
+    <t>Very easily killed but trades effectively if your ADC doesn't auto plants. Her objective control mid/late game with Liandries can be very troublesome so you need to make a lead early.</t>
+  </si>
+  <si>
+    <t>https://discordapp.com/invite/sXfJgpp</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Mg308TA.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +393,12 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -411,10 +417,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -428,8 +435,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -718,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -781,81 +790,81 @@
         <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1842,8 +1851,8 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{55E70B37-5602-4A37-8D6B-D2C038A5F322}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{D0BBF039-77B3-42E1-987E-5B2E659D1A03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -1855,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
